--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_280__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_280__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5426,7 +5426,7 @@
                   <c:v>51.61930847167969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.88013458251953</c:v>
+                  <c:v>42.8801383972168</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.75538635253906</c:v>
@@ -5435,13 +5435,13 @@
                   <c:v>0.03233754634857178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.03096318617463112</c:v>
+                  <c:v>-0.03096691519021988</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.02431516349315643</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03420234844088554</c:v>
+                  <c:v>0.0342060774564743</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2245893925428391</c:v>
@@ -5450,7 +5450,7 @@
                   <c:v>1.429783463478088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.37430953979492</c:v>
+                  <c:v>50.37430572509766</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.005184151697903872</c:v>
@@ -5465,13 +5465,13 @@
                   <c:v>-0.08585552126169205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.1734378486871719</c:v>
+                  <c:v>-0.1734397113323212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.04748153686523</c:v>
+                  <c:v>48.04747772216797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2486005872488022</c:v>
+                  <c:v>0.248598724603653</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.125879779458046</c:v>
@@ -5486,28 +5486,28 @@
                   <c:v>48.42745971679688</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.004585550166666508</c:v>
+                  <c:v>0.004589279647916555</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1063627600669861</c:v>
+                  <c:v>-0.1063608899712563</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.1010033115744591</c:v>
+                  <c:v>-0.1010014489293098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.03054920025169849</c:v>
+                  <c:v>-0.03054733574390411</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.4257698059082</c:v>
+                  <c:v>51.42577362060547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.134728267788887</c:v>
+                  <c:v>0.1347264051437378</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>47.0064582824707</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.04621540755033493</c:v>
+                  <c:v>-0.04621913656592369</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.0371207632124424</c:v>
@@ -5516,10 +5516,10 @@
                   <c:v>2.121658802032471</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.04917857795953751</c:v>
+                  <c:v>-0.04917484894394875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.2114108353853226</c:v>
+                  <c:v>-0.2114126980304718</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>49.54342651367188</c:v>
@@ -5528,34 +5528,34 @@
                   <c:v>-0.002219115383923054</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.27225923538208</c:v>
+                  <c:v>7.272261142730713</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.2672119140625</c:v>
+                  <c:v>54.26720809936523</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.3101670444011688</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.85726547241211</c:v>
+                  <c:v>44.85727310180664</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1624504327774048</c:v>
+                  <c:v>0.162452295422554</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-0.3291470110416412</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.04936319589614868</c:v>
+                  <c:v>-0.04935946688055992</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.668490886688232</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.02091189846396446</c:v>
+                  <c:v>0.02091003395617008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.50710487365723</c:v>
+                  <c:v>26.50710868835449</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.7170987129211426</c:v>
@@ -5567,25 +5567,25 @@
                   <c:v>-0.2831814885139465</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.08332684636116028</c:v>
+                  <c:v>-0.08332871645689011</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.1429595202207565</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.3289773166179657</c:v>
+                  <c:v>-0.3289791941642761</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.1487758308649063</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.0165631789714098</c:v>
+                  <c:v>-0.01656131446361542</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.923971652984619</c:v>
+                  <c:v>2.923975467681885</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.09738373011350632</c:v>
+                  <c:v>0.09738746285438538</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.001958042848855257</c:v>
@@ -5594,40 +5594,40 @@
                   <c:v>-0.03505829349160194</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.09490354359149933</c:v>
+                  <c:v>-0.09490727633237839</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.03290071710944176</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.01800467073917389</c:v>
+                  <c:v>0.01800280623137951</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-0.07324572652578354</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.1135776787996292</c:v>
+                  <c:v>-0.11357581615448</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>-0.04468253999948502</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.03884011134505272</c:v>
+                  <c:v>-0.03883638232946396</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.007020982448011637</c:v>
+                  <c:v>-0.007019117940217257</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.18722534179688</c:v>
+                  <c:v>51.18721771240234</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.01298089232295752</c:v>
+                  <c:v>-0.01297902781516314</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-0.01274779159575701</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.1476532220840454</c:v>
+                  <c:v>-0.1476569473743439</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-0.002851283410564065</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>49.48971939086914</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.42206573486328</c:v>
+                  <c:v>46.42206192016602</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.02994873374700546</c:v>
@@ -5648,7 +5648,7 @@
                   <c:v>-1.22419273853302</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3441493511199951</c:v>
+                  <c:v>0.3441475033760071</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.04174361005425453</c:v>
@@ -5657,16 +5657,16 @@
                   <c:v>0.09345832467079163</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.5738483071327209</c:v>
+                  <c:v>-0.5738520622253418</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1696560233831406</c:v>
+                  <c:v>0.169657900929451</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.008339398540556431</c:v>
+                  <c:v>0.008343127556145191</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0002983684535138309</c:v>
+                  <c:v>0.0002946388558484614</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.06698371469974518</c:v>
@@ -5678,7 +5678,7 @@
                   <c:v>-0.04272076860070229</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.1436718702316284</c:v>
+                  <c:v>-0.1436737328767776</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.02626947686076164</c:v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>42.88013458251953</v>
+        <v>42.8801383972168</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03096318617463112</v>
+        <v>-0.03096691519021988</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03420234844088554</v>
+        <v>0.0342060774564743</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>50.37430953979492</v>
+        <v>50.37430572509766</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1734378486871719</v>
+        <v>-0.1734397113323212</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>44.1708</v>
       </c>
       <c r="F19">
-        <v>48.04748153686523</v>
+        <v>48.04747772216797</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2486005872488022</v>
+        <v>0.248598724603653</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.004585550166666508</v>
+        <v>0.004589279647916555</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.1063627600669861</v>
+        <v>-0.1063608899712563</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.1010033115744591</v>
+        <v>-0.1010014489293098</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.03054920025169849</v>
+        <v>-0.03054733574390411</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>51.4257698059082</v>
+        <v>51.42577362060547</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.134728267788887</v>
+        <v>0.1347264051437378</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.04621540755033493</v>
+        <v>-0.04621913656592369</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.04917857795953751</v>
+        <v>-0.04917484894394875</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.2114108353853226</v>
+        <v>-0.2114126980304718</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>7.27225923538208</v>
+        <v>7.272261142730713</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>54.2672119140625</v>
+        <v>54.26720809936523</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>44.85726547241211</v>
+        <v>44.85727310180664</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.1624504327774048</v>
+        <v>0.162452295422554</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.04936319589614868</v>
+        <v>-0.04935946688055992</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.02091189846396446</v>
+        <v>0.02091003395617008</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>26.50710487365723</v>
+        <v>26.50710868835449</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.08332684636116028</v>
+        <v>-0.08332871645689011</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.3289773166179657</v>
+        <v>-0.3289791941642761</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-0.0165631789714098</v>
+        <v>-0.01656131446361542</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.923971652984619</v>
+        <v>2.923975467681885</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.09738373011350632</v>
+        <v>0.09738746285438538</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.09490354359149933</v>
+        <v>-0.09490727633237839</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.01800467073917389</v>
+        <v>0.01800280623137951</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.1135776787996292</v>
+        <v>-0.11357581615448</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.03884011134505272</v>
+        <v>-0.03883638232946396</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.007020982448011637</v>
+        <v>-0.007019117940217257</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>51.18722534179688</v>
+        <v>51.18721771240234</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.01298089232295752</v>
+        <v>-0.01297902781516314</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.1476532220840454</v>
+        <v>-0.1476569473743439</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>46.42206573486328</v>
+        <v>46.42206192016602</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.3441493511199951</v>
+        <v>0.3441475033760071</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-0.5738483071327209</v>
+        <v>-0.5738520622253418</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.1696560233831406</v>
+        <v>0.169657900929451</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.008339398540556431</v>
+        <v>0.008343127556145191</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.0002983684535138309</v>
+        <v>0.0002946388558484614</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.1436718702316284</v>
+        <v>-0.1436737328767776</v>
       </c>
     </row>
     <row r="90" spans="1:6">
